--- a/Homework/HW1/ratios.xlsx
+++ b/Homework/HW1/ratios.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Homework/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -95,13 +95,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,30 +167,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -454,49 +464,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -517,7 +529,7 @@
         <v>1.6216216216216217</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -538,7 +550,7 @@
         <v>1.3506493506493507</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -560,7 +572,7 @@
         <v>11.336206896551724</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -575,15 +587,14 @@
         <v>147.9</v>
       </c>
       <c r="E6" s="2">
-        <f>170.1</f>
-        <v>170.1</v>
+        <v>22.2</v>
       </c>
       <c r="F6" s="4">
         <f>D6/E6</f>
-        <v>0.86948853615520283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.6621621621621623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -593,18 +604,18 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>57</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>34.700000000000003</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f>D7/E7</f>
         <v>1.6426512968299711</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -614,6 +625,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>